--- a/浪潮云+优化开发项目/02需求调研/云+项目问题确认记录表.xlsx
+++ b/浪潮云+优化开发项目/02需求调研/云+项目问题确认记录表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhen/D/IDEA/BIG3/2020/浪潮云+优化开发项目/02需求调研/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhen/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD43A066-F5FB-1644-8EAD-7A89F85D9F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0971A27-27BA-2247-AF0D-FE9BCA242D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>问题</t>
   </si>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>未解决</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>待确认</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -229,10 +225,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>云+应用列表是否支持统计频率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>首页是h5集成进去后，通过什么方法打开一个窗口显示详情或外部链接</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -245,6 +237,46 @@
   </si>
   <si>
     <t>进行中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用短信接口参数：企业编号，用户名称，用户密码，接入号扩展号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>田总</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘强</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不提供，需要和客户经理要</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面加不了注册按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云++相当于一个浏览器，里面可以通过&lt;a&gt;标签跳转的方式实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有提供接口，云++处理，需要给田总发邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是按照之前扫码注册下载方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>康总已给相关文档</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -263,6 +295,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -270,6 +303,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -282,6 +316,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -317,7 +352,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +374,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,20 +485,29 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -803,7 +853,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.25" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -816,20 +866,20 @@
         <v>23</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>44</v>
+      <c r="H3" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -847,10 +897,10 @@
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="105.5" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -871,11 +921,11 @@
       <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32">
@@ -897,11 +947,11 @@
       <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>39</v>
+      <c r="G6" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.75" customHeight="1">
@@ -918,11 +968,11 @@
       <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>49</v>
+      <c r="G7" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16">
@@ -948,7 +998,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16">
@@ -974,7 +1024,7 @@
         <v>29</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="33.5" customHeight="1">
@@ -1004,23 +1054,23 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>38</v>
+      <c r="G11" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="64">
@@ -1067,25 +1117,75 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="32">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44092</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32">
+      <c r="A15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="32">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10">
+        <v>44092</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16">
+      <c r="A16" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>39</v>
+      <c r="B16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10">
+        <v>44092</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
